--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AC1CD9-6407-42C8-BDFF-2DABAE16BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581924BE-8185-4577-8C57-DE4AB73C50BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -506,7 +511,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3110,7 +3115,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -3151,7 +3156,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -3192,7 +3197,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -3233,7 +3238,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
@@ -3274,7 +3279,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
@@ -3315,7 +3320,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
@@ -3356,7 +3361,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
@@ -3682,11 +3687,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
@@ -3702,7 +3707,7 @@
     <col min="12" max="1024" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="17.45">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3718,7 +3723,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3732,7 +3737,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3744,7 +3749,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3762,7 +3767,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3781,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -3788,7 +3793,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -3800,7 +3805,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3812,7 +3817,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3824,7 +3829,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1">
+    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3836,7 +3841,7 @@
       <c r="I10"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1">
+    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3861,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -3877,7 +3882,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -3901,7 +3906,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1">
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -3925,7 +3930,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -3949,7 +3954,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>4</v>
       </c>
@@ -3969,7 +3974,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>5</v>
       </c>
@@ -3989,7 +3994,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1">
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4001,7 +4006,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1">
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4013,7 +4018,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1">
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4027,7 +4032,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4041,7 +4046,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1">
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4057,7 +4062,7 @@
       </c>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +4097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -4121,7 +4126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24.2">
+    <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
@@ -4150,7 +4155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.2">
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -4177,7 +4182,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="24.2">
+    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -4204,7 +4209,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="24.2">
+    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
@@ -4231,7 +4236,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>49</v>
       </c>
@@ -4245,7 +4250,9 @@
       <c r="E29" s="21">
         <v>13</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18" t="s">
         <v>31</v>
@@ -4260,7 +4267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
@@ -4274,7 +4281,9 @@
       <c r="E30" s="21">
         <v>5</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17">
+        <v>2</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18" t="s">
         <v>31</v>
@@ -4289,7 +4298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
@@ -4303,7 +4312,9 @@
       <c r="E31" s="21">
         <v>3</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17">
+        <v>2</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18" t="s">
         <v>31</v>
@@ -4316,7 +4327,7 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
@@ -4330,7 +4341,9 @@
       <c r="E32" s="21">
         <v>5</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17">
+        <v>2</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18" t="s">
         <v>31</v>
@@ -4343,7 +4356,7 @@
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="24">
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4370,9 @@
       <c r="E33" s="21">
         <v>5</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17">
+        <v>2</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="18" t="s">
         <v>31</v>
@@ -4372,7 +4387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>65</v>
       </c>
@@ -4386,7 +4401,9 @@
       <c r="E34" s="21">
         <v>8</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17">
+        <v>2</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18" t="s">
         <v>31</v>
@@ -4401,7 +4418,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24">
+    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
@@ -4415,7 +4432,9 @@
       <c r="E35" s="42">
         <v>2</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17">
+        <v>2</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="18" t="s">
         <v>70</v>
@@ -4430,7 +4449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
@@ -4459,7 +4478,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="22" customFormat="1" ht="24.2">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
@@ -4488,7 +4507,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="22" customFormat="1">
+    <row r="38" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>83</v>
       </c>
@@ -4517,7 +4536,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="22" customFormat="1">
+    <row r="39" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
@@ -4546,7 +4565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="22" customFormat="1">
+    <row r="40" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
@@ -4575,7 +4594,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>92</v>
       </c>
@@ -4604,7 +4623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
@@ -4631,7 +4650,7 @@
       </c>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>98</v>
       </c>
@@ -4660,7 +4679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="22" customFormat="1">
+    <row r="44" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>102</v>
       </c>
@@ -4689,7 +4708,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="22" customFormat="1">
+    <row r="45" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>106</v>
       </c>
@@ -4712,7 +4731,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="22" customFormat="1">
+    <row r="46" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>108</v>
       </c>
@@ -4741,7 +4760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="22" customFormat="1">
+    <row r="47" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4754,7 +4773,7 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" s="22" customFormat="1" ht="15">
+    <row r="48" spans="1:11" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4769,7 +4788,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4782,7 +4801,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" ht="24.2">
+    <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>113</v>
       </c>
@@ -4807,7 +4826,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="35.450000000000003">
+    <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>117</v>
       </c>
@@ -4832,7 +4851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>121</v>
       </c>
@@ -4857,7 +4876,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24.2">
+    <row r="53" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>125</v>
       </c>
@@ -4880,7 +4899,7 @@
       </c>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="24.2">
+    <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>128</v>
       </c>
@@ -4905,7 +4924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4918,7 +4937,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4931,7 +4950,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4944,7 +4963,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4957,7 +4976,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4970,7 +4989,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4983,7 +5002,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4996,7 +5015,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5009,7 +5028,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -5022,7 +5041,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -5035,7 +5054,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -5048,7 +5067,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -5061,7 +5080,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -5074,7 +5093,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -5087,7 +5106,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -5100,7 +5119,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5113,7 +5132,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -5126,7 +5145,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5139,7 +5158,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -5152,7 +5171,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -5165,7 +5184,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -5178,7 +5197,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5191,7 +5210,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5204,7 +5223,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5217,7 +5236,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5230,7 +5249,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5243,7 +5262,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5256,7 +5275,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5269,7 +5288,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5282,7 +5301,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5295,7 +5314,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -5308,7 +5327,7 @@
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -5321,7 +5340,7 @@
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -5334,7 +5353,7 @@
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -5347,7 +5366,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -5360,7 +5379,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5373,7 +5392,7 @@
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -5386,7 +5405,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -5399,7 +5418,7 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -5412,7 +5431,7 @@
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -5425,7 +5444,7 @@
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -5438,7 +5457,7 @@
       <c r="J95" s="19"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5451,7 +5470,7 @@
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -5464,7 +5483,7 @@
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -5477,7 +5496,7 @@
       <c r="J98" s="19"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -5490,7 +5509,7 @@
       <c r="J99" s="19"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -5586,7 +5605,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -5595,7 +5614,7 @@
     <col min="6" max="6" width="51.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -5611,7 +5630,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -5627,7 +5646,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -5642,7 +5661,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -5656,7 +5675,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -5666,7 +5685,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -5680,7 +5699,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -5695,12 +5714,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -5713,12 +5732,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -5731,12 +5750,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -5749,12 +5768,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -5767,12 +5786,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -5785,12 +5804,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -5803,12 +5822,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -5821,7 +5840,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5831,7 +5850,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -5851,7 +5870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -5863,7 +5882,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -5873,7 +5892,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -5883,7 +5902,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -5893,7 +5912,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -5903,7 +5922,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -5913,7 +5932,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -5923,7 +5942,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -5933,7 +5952,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -5943,7 +5962,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -5953,7 +5972,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -5963,7 +5982,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -5973,7 +5992,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -5983,7 +6002,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -5993,7 +6012,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -6003,7 +6022,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -6013,7 +6032,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -6023,7 +6042,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -6033,7 +6052,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -6043,7 +6062,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -6053,7 +6072,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -6063,7 +6082,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -6073,7 +6092,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -6083,7 +6102,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -6093,7 +6112,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -6103,7 +6122,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -6113,7 +6132,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -6123,7 +6142,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -6133,7 +6152,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -6143,7 +6162,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -6153,7 +6172,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -6163,7 +6182,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -6173,7 +6192,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -6183,7 +6202,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -6193,7 +6212,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -6203,7 +6222,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -6213,7 +6232,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -6223,7 +6242,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -6233,7 +6252,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -6243,7 +6262,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -6253,7 +6272,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -6263,7 +6282,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -6273,7 +6292,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -6283,7 +6302,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -6293,7 +6312,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -6303,7 +6322,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -6313,7 +6332,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -6323,7 +6342,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -6333,7 +6352,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -6343,7 +6362,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -6353,7 +6372,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -6363,7 +6382,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -6373,7 +6392,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -6383,7 +6402,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -6393,7 +6412,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -6403,7 +6422,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -6413,7 +6432,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -6423,7 +6442,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -6433,7 +6452,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -6443,7 +6462,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -6453,7 +6472,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -6463,7 +6482,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -6473,7 +6492,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -6483,7 +6502,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -6493,7 +6512,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -6503,7 +6522,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -6513,7 +6532,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -6523,7 +6542,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -6533,7 +6552,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -6543,7 +6562,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -6553,7 +6572,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -6563,7 +6582,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -6573,7 +6592,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -6583,7 +6602,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -6593,7 +6612,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -6603,7 +6622,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -6613,7 +6632,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -6623,7 +6642,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -6633,7 +6652,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -6643,7 +6662,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -6653,7 +6672,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -6663,7 +6682,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -6673,7 +6692,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -6683,7 +6702,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -6750,11 +6769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -6763,7 +6782,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -6780,7 +6799,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -6797,7 +6816,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -6812,7 +6831,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -6826,7 +6845,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -6836,7 +6855,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -6850,7 +6869,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -6865,12 +6884,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -6883,12 +6902,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -6901,12 +6920,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -6919,12 +6938,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -6937,12 +6956,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -6955,12 +6974,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -6973,12 +6992,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -6991,7 +7010,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -7001,7 +7020,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -7021,7 +7040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -7033,7 +7052,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -7043,7 +7062,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -7053,7 +7072,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -7063,7 +7082,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -7073,7 +7092,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -7083,7 +7102,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -7093,7 +7112,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -7103,7 +7122,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -7113,7 +7132,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -7123,7 +7142,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -7133,7 +7152,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -7143,7 +7162,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -7153,7 +7172,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -7163,7 +7182,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -7173,7 +7192,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -7183,7 +7202,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -7193,7 +7212,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -7203,7 +7222,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -7213,7 +7232,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -7223,7 +7242,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -7233,7 +7252,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -7243,7 +7262,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -7253,7 +7272,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -7263,7 +7282,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -7273,7 +7292,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -7283,7 +7302,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -7293,7 +7312,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -7303,7 +7322,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -7313,7 +7332,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -7323,7 +7342,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -7333,7 +7352,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -7343,7 +7362,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -7353,7 +7372,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -7363,7 +7382,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -7373,7 +7392,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -7383,7 +7402,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -7393,7 +7412,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -7403,7 +7422,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -7413,7 +7432,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -7423,7 +7442,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -7433,7 +7452,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -7443,7 +7462,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -7453,7 +7472,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -7463,7 +7482,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -7473,7 +7492,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -7483,7 +7502,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -7493,7 +7512,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -7503,7 +7522,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -7513,7 +7532,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -7523,7 +7542,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -7533,7 +7552,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -7543,7 +7562,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -7553,7 +7572,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -7563,7 +7582,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -7573,7 +7592,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -7583,7 +7602,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -7593,7 +7612,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -7603,7 +7622,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -7613,7 +7632,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -7623,7 +7642,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -7633,7 +7652,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -7643,7 +7662,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -7653,7 +7672,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -7663,7 +7682,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -7673,7 +7692,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -7683,7 +7702,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -7693,7 +7712,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -7703,7 +7722,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -7713,7 +7732,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -7723,7 +7742,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -7733,7 +7752,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -7743,7 +7762,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -7753,7 +7772,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -7763,7 +7782,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -7773,7 +7792,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -7783,7 +7802,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -7793,7 +7812,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -7803,7 +7822,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -7813,7 +7832,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -7823,7 +7842,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -7833,7 +7852,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -7843,7 +7862,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -7853,7 +7872,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -7924,7 +7943,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -7933,7 +7952,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -7950,7 +7969,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -7967,7 +7986,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -7982,7 +8001,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -7996,7 +8015,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -8006,7 +8025,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -8020,7 +8039,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -8035,12 +8054,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -8053,12 +8072,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -8071,12 +8090,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -8089,12 +8108,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -8107,12 +8126,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -8125,12 +8144,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -8143,12 +8162,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -8161,7 +8180,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -8171,7 +8190,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -8191,7 +8210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -8203,7 +8222,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -8213,7 +8232,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -8223,7 +8242,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -8233,7 +8252,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -8243,7 +8262,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -8253,7 +8272,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -8263,7 +8282,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -8273,7 +8292,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -8283,7 +8302,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -8293,7 +8312,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -8303,7 +8322,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -8313,7 +8332,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -8323,7 +8342,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -8333,7 +8352,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -8343,7 +8362,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -8353,7 +8372,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -8363,7 +8382,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -8373,7 +8392,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -8383,7 +8402,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -8393,7 +8412,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -8403,7 +8422,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -8413,7 +8432,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -8423,7 +8442,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -8433,7 +8452,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -8443,7 +8462,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -8453,7 +8472,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -8463,7 +8482,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -8473,7 +8492,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -8483,7 +8502,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -8493,7 +8512,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -8503,7 +8522,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -8513,7 +8532,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -8523,7 +8542,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -8533,7 +8552,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -8543,7 +8562,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -8553,7 +8572,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -8563,7 +8582,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -8573,7 +8592,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -8583,7 +8602,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -8593,7 +8612,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -8603,7 +8622,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -8613,7 +8632,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -8623,7 +8642,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -8633,7 +8652,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -8643,7 +8662,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -8653,7 +8672,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -8663,7 +8682,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -8673,7 +8692,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -8683,7 +8702,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -8693,7 +8712,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -8703,7 +8722,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -8713,7 +8732,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -8723,7 +8742,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -8733,7 +8752,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -8743,7 +8762,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -8753,7 +8772,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -8763,7 +8782,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -8773,7 +8792,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -8783,7 +8802,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -8793,7 +8812,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -8803,7 +8822,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -8813,7 +8832,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -8823,7 +8842,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -8833,7 +8852,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -8843,7 +8862,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -8853,7 +8872,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -8863,7 +8882,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -8873,7 +8892,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -8883,7 +8902,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -8893,7 +8912,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -8903,7 +8922,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -8913,7 +8932,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -8923,7 +8942,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -8933,7 +8952,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -8943,7 +8962,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -8953,7 +8972,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -8963,7 +8982,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -8973,7 +8992,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -8983,7 +9002,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -8993,7 +9012,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -9003,7 +9022,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -9013,7 +9032,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -9023,7 +9042,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -9094,7 +9113,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -9103,7 +9122,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -9120,7 +9139,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -9136,7 +9155,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -9151,7 +9170,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -9165,7 +9184,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -9175,7 +9194,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -9189,7 +9208,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -9204,12 +9223,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -9222,12 +9241,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -9240,12 +9259,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -9258,12 +9277,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -9276,12 +9295,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -9294,12 +9313,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -9312,12 +9331,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -9330,7 +9349,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9340,7 +9359,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -9360,7 +9379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -9372,7 +9391,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -9382,7 +9401,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -9392,7 +9411,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -9402,7 +9421,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -9412,7 +9431,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -9422,7 +9441,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -9432,7 +9451,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -9442,7 +9461,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -9452,7 +9471,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -9462,7 +9481,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -9472,7 +9491,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -9482,7 +9501,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -9492,7 +9511,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -9502,7 +9521,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -9512,7 +9531,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -9522,7 +9541,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -9532,7 +9551,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -9542,7 +9561,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -9552,7 +9571,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -9562,7 +9581,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -9572,7 +9591,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -9582,7 +9601,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -9592,7 +9611,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -9602,7 +9621,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -9612,7 +9631,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -9622,7 +9641,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -9632,7 +9651,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -9642,7 +9661,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -9652,7 +9671,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -9662,7 +9681,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -9672,7 +9691,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -9682,7 +9701,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -9692,7 +9711,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -9702,7 +9721,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -9712,7 +9731,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -9722,7 +9741,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -9732,7 +9751,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -9742,7 +9761,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -9752,7 +9771,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -9762,7 +9781,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -9772,7 +9791,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -9782,7 +9801,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -9792,7 +9811,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -9802,7 +9821,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -9812,7 +9831,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -9822,7 +9841,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -9832,7 +9851,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -9842,7 +9861,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -9852,7 +9871,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -9862,7 +9881,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -9872,7 +9891,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -9882,7 +9901,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -9892,7 +9911,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -9902,7 +9921,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -9912,7 +9931,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -9922,7 +9941,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -9932,7 +9951,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -9942,7 +9961,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -9952,7 +9971,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -9962,7 +9981,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -9972,7 +9991,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -9982,7 +10001,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -9992,7 +10011,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -10002,7 +10021,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -10012,7 +10031,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -10022,7 +10041,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -10032,7 +10051,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -10042,7 +10061,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -10052,7 +10071,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -10062,7 +10081,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -10072,7 +10091,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -10082,7 +10101,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -10092,7 +10111,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -10102,7 +10121,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -10112,7 +10131,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -10122,7 +10141,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -10132,7 +10151,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -10142,7 +10161,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -10152,7 +10171,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -10162,7 +10181,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -10172,7 +10191,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -10182,7 +10201,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -10192,7 +10211,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -10263,7 +10282,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -10272,7 +10291,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -10289,7 +10308,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -10306,7 +10325,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -10321,7 +10340,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -10335,7 +10354,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -10345,7 +10364,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -10359,7 +10378,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -10374,12 +10393,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -10392,12 +10411,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -10410,12 +10429,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -10428,12 +10447,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -10446,12 +10465,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -10464,12 +10483,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -10482,12 +10501,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -10500,7 +10519,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -10510,7 +10529,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -10530,7 +10549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -10542,7 +10561,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -10552,7 +10571,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -10562,7 +10581,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -10572,7 +10591,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -10582,7 +10601,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -10592,7 +10611,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -10602,7 +10621,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -10612,7 +10631,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -10622,7 +10641,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -10632,7 +10651,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -10642,7 +10661,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -10652,7 +10671,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -10662,7 +10681,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -10672,7 +10691,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -10682,7 +10701,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -10692,7 +10711,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -10702,7 +10721,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -10712,7 +10731,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -10722,7 +10741,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -10732,7 +10751,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -10742,7 +10761,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -10752,7 +10771,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -10762,7 +10781,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -10772,7 +10791,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -10782,7 +10801,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -10792,7 +10811,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -10802,7 +10821,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -10812,7 +10831,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -10822,7 +10841,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -10832,7 +10851,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -10842,7 +10861,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -10852,7 +10871,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -10862,7 +10881,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -10872,7 +10891,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -10882,7 +10901,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -10892,7 +10911,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -10902,7 +10921,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -10912,7 +10931,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -10922,7 +10941,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -10932,7 +10951,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -10942,7 +10961,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -10952,7 +10971,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -10962,7 +10981,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -10972,7 +10991,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -10982,7 +11001,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -10992,7 +11011,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -11002,7 +11021,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -11012,7 +11031,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -11022,7 +11041,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -11032,7 +11051,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -11042,7 +11061,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -11052,7 +11071,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -11062,7 +11081,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -11072,7 +11091,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -11082,7 +11101,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -11092,7 +11111,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -11102,7 +11121,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -11112,7 +11131,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -11122,7 +11141,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -11132,7 +11151,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -11142,7 +11161,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -11152,7 +11171,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -11162,7 +11181,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -11172,7 +11191,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -11182,7 +11201,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -11192,7 +11211,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -11202,7 +11221,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -11212,7 +11231,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -11222,7 +11241,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -11232,7 +11251,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -11242,7 +11261,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -11252,7 +11271,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -11262,7 +11281,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -11272,7 +11291,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -11282,7 +11301,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -11292,7 +11311,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -11302,7 +11321,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -11312,7 +11331,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -11322,7 +11341,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -11332,7 +11351,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -11342,7 +11361,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -11352,7 +11371,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -11362,7 +11381,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -11433,7 +11452,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -11442,7 +11461,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -11461,7 +11480,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -11478,7 +11497,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -11493,7 +11512,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -11507,7 +11526,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -11517,7 +11536,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -11531,7 +11550,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -11546,12 +11565,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -11564,12 +11583,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -11582,12 +11601,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -11600,12 +11619,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -11618,12 +11637,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -11636,12 +11655,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -11654,12 +11673,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -11672,7 +11691,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -11684,7 +11703,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -11704,7 +11723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -11716,7 +11735,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -11726,7 +11745,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -11736,7 +11755,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -11746,7 +11765,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -11756,7 +11775,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -11766,7 +11785,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -11776,7 +11795,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -11786,7 +11805,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -11796,7 +11815,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -11806,7 +11825,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -11816,7 +11835,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -11826,7 +11845,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -11836,7 +11855,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -11846,7 +11865,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -11856,7 +11875,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -11866,7 +11885,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -11876,7 +11895,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -11886,7 +11905,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -11896,7 +11915,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -11906,7 +11925,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -11916,7 +11935,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -11926,7 +11945,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -11936,7 +11955,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -11946,7 +11965,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -11956,7 +11975,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -11966,7 +11985,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -11976,7 +11995,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -11986,7 +12005,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -11996,7 +12015,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -12006,7 +12025,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -12016,7 +12035,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -12026,7 +12045,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -12036,7 +12055,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -12046,7 +12065,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -12056,7 +12075,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -12066,7 +12085,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -12076,7 +12095,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -12086,7 +12105,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -12096,7 +12115,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -12106,7 +12125,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -12116,7 +12135,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -12126,7 +12145,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -12136,7 +12155,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -12146,7 +12165,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -12156,7 +12175,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -12166,7 +12185,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -12176,7 +12195,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -12186,7 +12205,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -12196,7 +12215,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -12206,7 +12225,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -12216,7 +12235,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -12226,7 +12245,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -12236,7 +12255,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -12246,7 +12265,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -12256,7 +12275,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -12266,7 +12285,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -12276,7 +12295,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -12286,7 +12305,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -12296,7 +12315,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -12306,7 +12325,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -12316,7 +12335,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -12326,7 +12345,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -12336,7 +12355,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -12346,7 +12365,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -12356,7 +12375,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -12366,7 +12385,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -12376,7 +12395,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -12386,7 +12405,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -12396,7 +12415,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -12406,7 +12425,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -12416,7 +12435,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -12426,7 +12445,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -12436,7 +12455,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -12446,7 +12465,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -12456,7 +12475,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -12466,7 +12485,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -12476,7 +12495,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -12486,7 +12505,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -12496,7 +12515,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -12506,7 +12525,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -12516,7 +12535,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -12526,7 +12545,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -12536,7 +12555,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581924BE-8185-4577-8C57-DE4AB73C50BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660A1E3B-90D4-4802-B6B5-4D32D0CADCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="156">
   <si>
     <t>Product Name:</t>
   </si>
@@ -501,6 +501,15 @@
   </si>
   <si>
     <t>NOTE: This sprint is entirely OPTIONAL – no points will be lost if you ignore it</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
@@ -1014,19 +1023,19 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,28 +1634,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,8 +3696,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="H23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3888,11 +3897,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3912,7 +3921,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
@@ -3936,7 +3945,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -3960,7 +3969,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -3980,7 +3989,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4253,7 +4262,9 @@
       <c r="F29" s="17">
         <v>2</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
       </c>
@@ -4284,7 +4295,9 @@
       <c r="F30" s="17">
         <v>2</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H30" s="18" t="s">
         <v>31</v>
       </c>
@@ -4315,7 +4328,9 @@
       <c r="F31" s="17">
         <v>2</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H31" s="18" t="s">
         <v>31</v>
       </c>
@@ -4344,7 +4359,9 @@
       <c r="F32" s="17">
         <v>2</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H32" s="18" t="s">
         <v>31</v>
       </c>
@@ -4373,7 +4390,9 @@
       <c r="F33" s="17">
         <v>2</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="H33" s="18" t="s">
         <v>31</v>
       </c>
@@ -4404,7 +4423,9 @@
       <c r="F34" s="17">
         <v>2</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H34" s="18" t="s">
         <v>31</v>
       </c>
@@ -4435,7 +4456,9 @@
       <c r="F35" s="17">
         <v>2</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H35" s="18" t="s">
         <v>70</v>
       </c>
@@ -5602,7 +5625,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6713,7 +6736,7 @@
       <c r="F100" s="38"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations xWindow="107" yWindow="829" count="4">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -6740,7 +6763,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="107" yWindow="829" count="2">
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
@@ -6770,7 +6793,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6875,7 +6898,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6890,7 +6913,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -6908,7 +6931,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -6926,7 +6949,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -6944,7 +6967,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -6962,7 +6985,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6980,7 +7003,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6998,7 +7021,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -7044,72 +7067,112 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="35" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7902,12 +7965,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660A1E3B-90D4-4802-B6B5-4D32D0CADCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5778F441-F472-40EB-A992-0B19E886E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="163">
   <si>
     <t>Product Name:</t>
   </si>
@@ -510,6 +510,27 @@
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Test</t>
+  </si>
+  <si>
+    <t>Be able to draw on our logo</t>
+  </si>
+  <si>
+    <t>Save current store, if not saved before get a name for file</t>
+  </si>
+  <si>
+    <t>Wipe what we have rn, get new store</t>
+  </si>
+  <si>
+    <t>Save and prompt for a name</t>
+  </si>
+  <si>
+    <t>Load store from file</t>
+  </si>
+  <si>
+    <t>something broke TestStore, sometime after adding save method and Store(BufferedReader br)</t>
   </si>
 </sst>
 </file>
@@ -670,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -800,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1948,28 +1972,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,8 +3720,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="H23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4486,8 +4510,12 @@
       <c r="E36" s="16">
         <v>5</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="17">
+        <v>3</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H36" s="18" t="s">
         <v>70</v>
       </c>
@@ -4515,8 +4543,12 @@
       <c r="E37" s="16">
         <v>13</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="17">
+        <v>3</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H37" s="18" t="s">
         <v>79</v>
       </c>
@@ -4544,8 +4576,12 @@
       <c r="E38" s="16">
         <v>1</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="17">
+        <v>3</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H38" s="18" t="s">
         <v>79</v>
       </c>
@@ -4573,8 +4609,12 @@
       <c r="E39" s="16">
         <v>5</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="17">
+        <v>3</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H39" s="18" t="s">
         <v>79</v>
       </c>
@@ -4602,8 +4642,12 @@
       <c r="E40" s="16">
         <v>8</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="F40" s="17">
+        <v>3</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="H40" s="18" t="s">
         <v>79</v>
       </c>
@@ -5624,8 +5668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="B9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6792,7 +6836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8002,8 +8046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8108,7 +8152,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -8123,7 +8167,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -8141,7 +8185,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8159,7 +8203,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8177,7 +8221,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8195,7 +8239,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8213,7 +8257,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8231,7 +8275,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8277,52 +8321,80 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="37"/>
+      <c r="D17" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8335,7 +8407,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -8343,7 +8415,9 @@
       <c r="C23" s="4"/>
       <c r="D23" s="39"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -9135,12 +9209,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
